--- a/Data_Files/Test_5_Data_433_BulkUpload.xlsx
+++ b/Data_Files/Test_5_Data_433_BulkUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumya\Documents\GitHub\Git 1Channel Portal UI\Assistive-Portal-UI-Automation-Preprod\Data_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumya\Documents\GitHub\1Channel-E2E_TestAutomation-Preprod\1Channel-E2E_TestAutomation-Preprod\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D13238-9BB7-4CD8-8196-2D63C45A08A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F667F-0291-4940-A475-82CFC878B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
   <si>
     <t>FGM</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>Branch email ID</t>
+  </si>
+  <si>
+    <t>br@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -402,9 +408,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,80 +692,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="41.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="27.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="25.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,1048 +779,1068 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2">
         <v>7189786</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2">
         <v>1060316410</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2">
         <v>9636770831</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2">
         <v>81050372</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2">
         <v>1300000</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2">
         <v>1186762</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2">
         <v>1212639.6000000001</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2">
         <v>12468</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2">
         <v>7192.6</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2">
         <v>18685</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2">
         <v>0</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2">
         <v>25700.6</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2">
         <v>102</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" t="s">
         <v>68</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AL2">
         <v>1212639.6000000001</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AN2">
         <v>1352639.6</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AO2">
         <v>0</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AP2">
         <v>62</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AQ2">
         <v>62</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" t="s">
         <v>100</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" t="s">
         <v>69</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AW2" s="3">
+      <c r="AX2">
         <v>323801</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" t="s">
         <v>71</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BB2" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ2" s="3">
+      <c r="BC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2">
         <v>0</v>
       </c>
-      <c r="BK2" s="3">
+      <c r="BL2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3">
         <v>7189787</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3">
         <v>10515304411</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3">
         <v>9540487832</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3">
         <v>81050374</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3">
         <v>700000</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3">
         <v>604046</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3">
         <v>630522</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3">
         <v>8891</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3">
         <v>11871</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3">
         <v>14605</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3">
         <v>25000</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" t="s">
         <v>67</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" t="s">
         <v>75</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" t="s">
         <v>76</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AH3">
         <v>102</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AL3">
         <v>2898367.08</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AM3">
         <v>0</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AN3">
         <v>2898367.08</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3">
         <v>0</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AP3">
         <v>62</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AQ3">
         <v>62</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" t="s">
         <v>101</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" t="s">
         <v>86</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" t="s">
         <v>69</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AW3" s="3">
+      <c r="AX3">
         <v>250406</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" t="s">
         <v>70</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" t="s">
         <v>71</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BB3" t="s">
         <v>72</v>
       </c>
-      <c r="BB3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ3" s="3">
+      <c r="BC3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3">
         <v>0</v>
       </c>
-      <c r="BK3" s="3">
+      <c r="BL3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4">
         <v>7189788</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4">
         <v>910020003</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4">
         <v>8102020003</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4">
         <v>1002</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4">
         <v>502</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U4" s="3">
+      <c r="U4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4">
         <v>100</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI4" s="3" t="s">
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>93</v>
       </c>
-      <c r="AJ4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AK4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS4" t="s">
         <v>102</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" t="s">
         <v>94</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" t="s">
         <v>69</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AW4" s="1"/>
+      <c r="AX4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>70</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BA4" t="s">
         <v>71</v>
       </c>
-      <c r="BB4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BC4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5">
         <v>7189789</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5">
         <v>910020010</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5">
         <v>8102020010</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5">
         <v>1009</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5">
         <v>509</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5" s="3">
+      <c r="U5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5">
         <v>40</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI5" s="3" t="s">
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>93</v>
       </c>
-      <c r="AJ5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AK5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS5" t="s">
         <v>103</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" t="s">
         <v>94</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" t="s">
         <v>69</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AW5" s="1"/>
+      <c r="AX5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>70</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="BA5" t="s">
         <v>71</v>
       </c>
-      <c r="BB5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BC5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6">
         <v>7189790</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6">
         <v>910020013</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6">
         <v>8102020013</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6">
         <v>1012</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6">
         <v>512</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U6" s="3">
+      <c r="U6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6">
         <v>25.12</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI6" s="3" t="s">
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>93</v>
       </c>
-      <c r="AJ6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AK6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS6" t="s">
         <v>104</v>
       </c>
-      <c r="AS6" s="3" t="s">
+      <c r="AT6" t="s">
         <v>94</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AU6" t="s">
         <v>69</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AW6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY6" s="3" t="s">
+      <c r="AX6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>70</v>
       </c>
-      <c r="AZ6" s="3" t="s">
+      <c r="BA6" t="s">
         <v>71</v>
       </c>
-      <c r="BB6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI6" s="3" t="s">
+      <c r="BC6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ6" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AU2" r:id="rId1" xr:uid="{285DB118-C5C7-4924-AC4D-E584AABBBFC7}"/>
-    <hyperlink ref="AV2" r:id="rId2" xr:uid="{BA2B3167-52E4-41FC-850E-3D8236236F20}"/>
-    <hyperlink ref="AV3" r:id="rId3" xr:uid="{0EB0EC8D-E8BC-4670-B24E-04E6B3D07EEE}"/>
-    <hyperlink ref="AV6" r:id="rId4" xr:uid="{CE7F0C3B-9DB8-4E4D-8417-FE1476EE6F84}"/>
-    <hyperlink ref="AU3:AU6" r:id="rId5" display="testemailqa@1channel.co" xr:uid="{DF588BE3-B472-4EB1-B7CC-C1A53EE9532D}"/>
+    <hyperlink ref="AV2" r:id="rId1" xr:uid="{285DB118-C5C7-4924-AC4D-E584AABBBFC7}"/>
+    <hyperlink ref="AW2" r:id="rId2" xr:uid="{BA2B3167-52E4-41FC-850E-3D8236236F20}"/>
+    <hyperlink ref="AW3" r:id="rId3" xr:uid="{0EB0EC8D-E8BC-4670-B24E-04E6B3D07EEE}"/>
+    <hyperlink ref="AW6" r:id="rId4" xr:uid="{CE7F0C3B-9DB8-4E4D-8417-FE1476EE6F84}"/>
+    <hyperlink ref="AV3:AV6" r:id="rId5" display="testemailqa@1channel.co" xr:uid="{DF588BE3-B472-4EB1-B7CC-C1A53EE9532D}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{8D210B9B-4D61-4C56-B35B-5A8AE5C05E0A}"/>
+    <hyperlink ref="E3:E6" r:id="rId7" display="br@gmail.com" xr:uid="{04016F09-A88D-477E-966C-1C7C509318E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data_Files/Test_5_Data_433_BulkUpload.xlsx
+++ b/Data_Files/Test_5_Data_433_BulkUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumya\Documents\GitHub\1Channel-E2E_TestAutomation-Preprod\1Channel-E2E_TestAutomation-Preprod\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5F667F-0291-4940-A475-82CFC878B69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B6DFD-0186-4437-8F0E-62CB84A90C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,21 +312,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Gurgaon 11</t>
-  </si>
-  <si>
-    <t>Luckhnow 22</t>
-  </si>
-  <si>
-    <t>KOLKATA 99</t>
-  </si>
-  <si>
-    <t>KOLKATA 89</t>
-  </si>
-  <si>
-    <t>KOLKATA 79</t>
-  </si>
-  <si>
     <t>cust 11</t>
   </si>
   <si>
@@ -355,13 +340,28 @@
   </si>
   <si>
     <t>br@gmail.com</t>
+  </si>
+  <si>
+    <t>Kol_10</t>
+  </si>
+  <si>
+    <t>Kol_11</t>
+  </si>
+  <si>
+    <t>Kol_12</t>
+  </si>
+  <si>
+    <t>Kol_13</t>
+  </si>
+  <si>
+    <t>Kol_14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +382,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -695,7 +701,7 @@
   <dimension ref="A1:BL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -961,7 +967,7 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -973,10 +979,10 @@
         <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>7189786</v>
@@ -1075,7 +1081,7 @@
         <v>62</v>
       </c>
       <c r="AS2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AT2" t="s">
         <v>81</v>
@@ -1084,10 +1090,10 @@
         <v>69</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AX2">
         <v>323801</v>
@@ -1122,7 +1128,7 @@
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -1134,10 +1140,10 @@
         <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>7189787</v>
@@ -1236,7 +1242,7 @@
         <v>62</v>
       </c>
       <c r="AS3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AT3" t="s">
         <v>86</v>
@@ -1245,10 +1251,10 @@
         <v>69</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AX3">
         <v>250406</v>
@@ -1283,7 +1289,7 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -1295,10 +1301,10 @@
         <v>90</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <v>7189788</v>
@@ -1415,7 +1421,7 @@
         <v>91</v>
       </c>
       <c r="AS4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AT4" t="s">
         <v>94</v>
@@ -1424,7 +1430,7 @@
         <v>69</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AW4" s="1"/>
       <c r="AX4" t="s">
@@ -1466,7 +1472,7 @@
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -1478,10 +1484,10 @@
         <v>90</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G5">
         <v>7189789</v>
@@ -1598,7 +1604,7 @@
         <v>91</v>
       </c>
       <c r="AS5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AT5" t="s">
         <v>94</v>
@@ -1607,7 +1613,7 @@
         <v>69</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AW5" s="1"/>
       <c r="AX5" t="s">
@@ -1649,7 +1655,7 @@
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
@@ -1661,10 +1667,10 @@
         <v>90</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G6">
         <v>7189790</v>
@@ -1781,7 +1787,7 @@
         <v>91</v>
       </c>
       <c r="AS6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AT6" t="s">
         <v>94</v>
@@ -1790,10 +1796,10 @@
         <v>69</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AX6" t="s">
         <v>91</v>
@@ -1833,6 +1839,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AV2" r:id="rId1" xr:uid="{285DB118-C5C7-4924-AC4D-E584AABBBFC7}"/>
     <hyperlink ref="AW2" r:id="rId2" xr:uid="{BA2B3167-52E4-41FC-850E-3D8236236F20}"/>
